--- a/BaseRules.xlsx
+++ b/BaseRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\Air Conditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC6A54-9905-471D-87B7-C14D56E6B013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2024ECFD-56F1-4A17-B47B-0074B19FB124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{77B39490-92B1-4F0F-BA52-BE7C3E6348A8}"/>
+    <workbookView xWindow="21450" yWindow="3810" windowWidth="10155" windowHeight="10545" xr2:uid="{77B39490-92B1-4F0F-BA52-BE7C3E6348A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB641687-658E-40BA-AC79-CA41883DCD62}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
